--- a/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.8129092350406254</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.8353947050108008</v>
+        <v>0.8353947050108006</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8875071875950767</v>
@@ -697,7 +697,7 @@
         <v>0.8238040319790209</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8751853721118138</v>
+        <v>0.8751853721118139</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8648040631093658</v>
+        <v>0.8635936452426176</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8049100471756431</v>
+        <v>0.8064514737571178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7924936474062768</v>
+        <v>0.7947202051816049</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8568742556185431</v>
+        <v>0.8561369356569628</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8464760237439191</v>
+        <v>0.8428580940841811</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7355232456830947</v>
+        <v>0.7342291183762177</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.770608812237801</v>
+        <v>0.7745207257525117</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7772005741935991</v>
+        <v>0.7750201629824037</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8643681343090382</v>
+        <v>0.8656269887832785</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.781931019824889</v>
+        <v>0.7814911873792276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.796261700559593</v>
+        <v>0.7985980875210107</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8337564566575891</v>
+        <v>0.8336218172499856</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9225709771383878</v>
+        <v>0.9217455709573217</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8732774844046127</v>
+        <v>0.8726073022648655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8711494714262632</v>
+        <v>0.8701541693034854</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9531817791693435</v>
+        <v>0.9524363028699928</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9053170584833541</v>
+        <v>0.9033654314678904</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8137869174310776</v>
+        <v>0.816817133763825</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8466787876726908</v>
+        <v>0.849155290991916</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.886425613382764</v>
+        <v>0.8870642286564587</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9067174399538908</v>
+        <v>0.9062783319658873</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8330408492787974</v>
+        <v>0.8343060633975091</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8505373288620932</v>
+        <v>0.8482907932055959</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9081194048300535</v>
+        <v>0.9058292999554286</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8501645425959706</v>
+        <v>0.8523472283619414</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.773988626716243</v>
+        <v>0.7737177124356437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.789861379726011</v>
+        <v>0.7879663628629384</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8077593237010966</v>
+        <v>0.8049719730584022</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.814160415196357</v>
+        <v>0.8179679729672171</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7557362117006112</v>
+        <v>0.7602867072276733</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8138654178997937</v>
+        <v>0.8142478712326106</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.761699235595504</v>
+        <v>0.7651400693300964</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8441039365266831</v>
+        <v>0.8460459079566736</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7763370504639936</v>
+        <v>0.7736865652695343</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8119456321420968</v>
+        <v>0.8116067677785911</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7970862749878538</v>
+        <v>0.7957431033350135</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9048955698331682</v>
+        <v>0.9034629469715386</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8337906910103704</v>
+        <v>0.8358878393960033</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8531287822319634</v>
+        <v>0.8519906300299238</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.895863853375225</v>
+        <v>0.8907448754079125</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8738584520311301</v>
+        <v>0.8752735306656066</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8259573525512364</v>
+        <v>0.824351487973224</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.871489136731906</v>
+        <v>0.8747280208395528</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.840440163123493</v>
+        <v>0.8414429488314452</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8817984620422152</v>
+        <v>0.8815218269159162</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8217922567503567</v>
+        <v>0.8210133600060679</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8578489507537398</v>
+        <v>0.8561127528292544</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8561208572530121</v>
+        <v>0.8533682908661319</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.790477826858451</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7668952897007966</v>
+        <v>0.7668952897007963</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.8354016226304861</v>
@@ -969,7 +969,7 @@
         <v>0.7975462206806953</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7847880748860494</v>
+        <v>0.7847880748860493</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8048325827641896</v>
+        <v>0.8083131491639262</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7506819095493439</v>
+        <v>0.7545261357240107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7707950824639369</v>
+        <v>0.7717567504376012</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7662613497993374</v>
+        <v>0.767139926004952</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8035690000026463</v>
+        <v>0.803037544887376</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7405789679733802</v>
+        <v>0.7392857679911189</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7551925870615378</v>
+        <v>0.7576372021553751</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7399008799743605</v>
+        <v>0.7348764243008588</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8142017332203273</v>
+        <v>0.8145283578283253</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7543705422966296</v>
+        <v>0.7537038807580403</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7741841269974087</v>
+        <v>0.773347004860435</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7606358200941585</v>
+        <v>0.761921413477273</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8635139130103523</v>
+        <v>0.8664451480448865</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8164120591642576</v>
+        <v>0.818245097257753</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8350912298592538</v>
+        <v>0.8334230241881141</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8368054411711867</v>
+        <v>0.8359002509105913</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8592866475062262</v>
+        <v>0.8597961663130768</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8073149621361164</v>
+        <v>0.8017868856644447</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.819823041862892</v>
+        <v>0.8205065187844159</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7966833797757168</v>
+        <v>0.7954092502344002</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8568329254619108</v>
+        <v>0.8546925914419182</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7999775955783103</v>
+        <v>0.7984368452785215</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8181158711448739</v>
+        <v>0.8176921717855857</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8057582388882282</v>
+        <v>0.8066798481008196</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7927728564357961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7220427365970007</v>
+        <v>0.7220427365970009</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7890287377101841</v>
@@ -1105,7 +1105,7 @@
         <v>0.7589378305426644</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7182945388206786</v>
+        <v>0.7182945388206785</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.787728955521339</v>
+        <v>0.7915977159707082</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6937577632644478</v>
+        <v>0.6973066041713006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7582879184245054</v>
+        <v>0.7577557325994214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6833429936625942</v>
+        <v>0.6861842978026285</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7516715051101135</v>
+        <v>0.7485392210366971</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6251360445935688</v>
+        <v>0.6279424513312799</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6909024613653078</v>
+        <v>0.686015771695243</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6847138737314017</v>
+        <v>0.6869368533674204</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7826660409089249</v>
+        <v>0.7822519795870649</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6702494889128968</v>
+        <v>0.6740271892075149</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7326161550090715</v>
+        <v>0.7324411182685261</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6969051823778404</v>
+        <v>0.6981621011072136</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8610603138029627</v>
+        <v>0.8600231805896961</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7704421468156536</v>
+        <v>0.77485324309064</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8283104760251574</v>
+        <v>0.8219879281632512</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7565103460026313</v>
+        <v>0.758728241909309</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8239818636091611</v>
+        <v>0.8226323861975977</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7063660314019947</v>
+        <v>0.7084835362183144</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7648285907678811</v>
+        <v>0.7588437695206648</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7394167991284256</v>
+        <v>0.7408592892440293</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.831846919669638</v>
+        <v>0.8324696411492769</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7276971515175326</v>
+        <v>0.7290986711069579</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7830132904324796</v>
+        <v>0.7845632450753383</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7411714663810384</v>
+        <v>0.7386293408871746</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.752952005877462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.710240821608473</v>
+        <v>0.7102408216084731</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.732807629360134</v>
@@ -1229,7 +1229,7 @@
         <v>0.6540515602376643</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6121296246063009</v>
+        <v>0.6121296246063008</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7599822673409554</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7406461951059639</v>
+        <v>0.7424906842360647</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6900073609603788</v>
+        <v>0.6878869626960546</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7079208227009897</v>
+        <v>0.7099319818938202</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6741818983283102</v>
+        <v>0.6756716350948468</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6852674391939859</v>
+        <v>0.6897641452811395</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5448713307928766</v>
+        <v>0.5433680175845147</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.608673344037728</v>
+        <v>0.6072288072680078</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5809604574550694</v>
+        <v>0.5816166872833591</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7311284560915249</v>
+        <v>0.728142833244836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6312982540265348</v>
+        <v>0.6251332080640464</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6705177764578274</v>
+        <v>0.6672930491605468</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6344867723721827</v>
+        <v>0.6401560086527952</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8275645161170541</v>
+        <v>0.8260709499540888</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7774372302853518</v>
+        <v>0.7823503486226887</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7929441023259753</v>
+        <v>0.7966788577498823</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.748602281270732</v>
+        <v>0.7481228767381919</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7720857737374164</v>
+        <v>0.7818516611696915</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6409661734540162</v>
+        <v>0.638174484066712</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6965080048216911</v>
+        <v>0.6977324943807313</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6446820537407809</v>
+        <v>0.6429319464335504</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7879366924134815</v>
+        <v>0.7883703888490378</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6984204153010066</v>
+        <v>0.6942222529338961</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7329002559365809</v>
+        <v>0.7311273317049564</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6836409705080765</v>
+        <v>0.6848548207708788</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5919702890640922</v>
+        <v>0.583857249502049</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4820119477065282</v>
+        <v>0.483918304656993</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5790984307903578</v>
+        <v>0.5794417024990463</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.607964741984077</v>
+        <v>0.6091370360816016</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5158630687551657</v>
+        <v>0.5159861481235464</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4825840774332606</v>
+        <v>0.4876570130219505</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4745422282084348</v>
+        <v>0.4762164543305389</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5628752122787199</v>
+        <v>0.5662191709082375</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5636273221335527</v>
+        <v>0.5662791363442115</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4972178559273637</v>
+        <v>0.4962536018205201</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5366849400605024</v>
+        <v>0.5417068760154133</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5971663293805133</v>
+        <v>0.595102710264487</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.704986777044995</v>
+        <v>0.6930275636812728</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6013726889176414</v>
+        <v>0.602930891660416</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6873699355467521</v>
+        <v>0.6866938576118928</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6874927103737105</v>
+        <v>0.6897058542748936</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6155984212556127</v>
+        <v>0.6177962851974582</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5876013390973639</v>
+        <v>0.5870457494899158</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5811841085733923</v>
+        <v>0.5800331512476633</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6318470257761287</v>
+        <v>0.6309533651365399</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6406462546965234</v>
+        <v>0.6416262516153542</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.575898037971439</v>
+        <v>0.5753985272007932</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6163526144755649</v>
+        <v>0.6158663825286922</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6483489148769199</v>
+        <v>0.6468798251893845</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.5742339069508299</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6072616943433263</v>
+        <v>0.6072616943433262</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.4636900624831665</v>
@@ -1513,7 +1513,7 @@
         <v>0.553567106235149</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.5550957904060252</v>
+        <v>0.5550957904060253</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5124595507597562</v>
+        <v>0.5080891164454744</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4565819468054592</v>
+        <v>0.4570309936360902</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5136276345924934</v>
+        <v>0.5182315416895523</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5615517537914566</v>
+        <v>0.5579797510960807</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4078331824172429</v>
+        <v>0.4041214554100185</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3834447240474971</v>
+        <v>0.3869918169522913</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4826161238943905</v>
+        <v>0.4820089156557587</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4836295657304572</v>
+        <v>0.4845766082674349</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.464650880132159</v>
+        <v>0.4611521525243963</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4298656073689479</v>
+        <v>0.428327676508127</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5152740651290503</v>
+        <v>0.5125183919660983</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5279440602663937</v>
+        <v>0.5274777914845499</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6476085553393657</v>
+        <v>0.6416390419655691</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5957221858721998</v>
+        <v>0.5932749122297366</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6289996006084788</v>
+        <v>0.630679469450009</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.655943045551837</v>
+        <v>0.6493505614799012</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5246435723074977</v>
+        <v>0.5243961942924339</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4941017335946581</v>
+        <v>0.4884089138419014</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5976866380861918</v>
+        <v>0.5996625857802066</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5544743812248207</v>
+        <v>0.5540231570366432</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5542244593066706</v>
+        <v>0.5519272179214342</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5105752787895743</v>
+        <v>0.5152161029586891</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5947056982855229</v>
+        <v>0.5931479735476914</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5847999471569558</v>
+        <v>0.5847482936573056</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.7677928238981824</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.7549219773282958</v>
+        <v>0.7549219773282959</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.7596167765213312</v>
@@ -1637,7 +1637,7 @@
         <v>0.7147581359444263</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.6928267041543175</v>
+        <v>0.6928267041543174</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.7866353095576866</v>
@@ -1649,7 +1649,7 @@
         <v>0.740729544728754</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.7230153149317786</v>
+        <v>0.7230153149317788</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7253063186853949</v>
+        <v>0.7248170623165755</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7522989248894272</v>
+        <v>0.7520037011144863</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7397707995945242</v>
+        <v>0.7382820511464686</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6574545668663216</v>
+        <v>0.6586101528081197</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.6998305208829499</v>
+        <v>0.6987059277760403</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6781306238117023</v>
+        <v>0.6807292272499946</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.695966675942261</v>
+        <v>0.6951444627719594</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.730542085927929</v>
+        <v>0.7298686662986493</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.7133889146434906</v>
+        <v>0.7132068531150032</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7552941103751369</v>
+        <v>0.7551464841603794</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.781408392546881</v>
+        <v>0.7827566438392146</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.770982488003939</v>
+        <v>0.7693361878954454</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6895998111834301</v>
+        <v>0.690375347867863</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7305561532948609</v>
+        <v>0.7303248284457015</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7057957400703344</v>
+        <v>0.7070555518718867</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7187208629726092</v>
+        <v>0.7177129790347291</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.7514850174507148</v>
+        <v>0.7512972403761872</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7337342263604703</v>
+        <v>0.7333332626634406</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>421749</v>
+        <v>421158</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>364003</v>
+        <v>364700</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>332422</v>
+        <v>333356</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>328929</v>
+        <v>328646</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>393343</v>
+        <v>391662</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>315736</v>
+        <v>315180</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>304242</v>
+        <v>305786</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>275918</v>
+        <v>275144</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>823193</v>
+        <v>824392</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>689268</v>
+        <v>688880</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>648372</v>
+        <v>650274</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>616051</v>
+        <v>615951</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>449920</v>
+        <v>449518</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>394921</v>
+        <v>394617</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>365415</v>
+        <v>364997</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>365899</v>
+        <v>365613</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>420685</v>
+        <v>419779</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>349332</v>
+        <v>350633</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>334275</v>
+        <v>335252</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>314694</v>
+        <v>314921</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>863525</v>
+        <v>863107</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>734321</v>
+        <v>735436</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>692567</v>
+        <v>690738</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>670997</v>
+        <v>669305</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>617436</v>
+        <v>619021</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>531072</v>
+        <v>530886</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>466410</v>
+        <v>465291</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>371850</v>
+        <v>370566</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>505534</v>
+        <v>507898</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>460388</v>
+        <v>463160</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>457160</v>
+        <v>457375</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>372582</v>
+        <v>374265</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1137162</v>
+        <v>1139778</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1005621</v>
+        <v>1002188</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>935533</v>
+        <v>935142</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>756828</v>
+        <v>755553</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>657185</v>
+        <v>656144</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>572105</v>
+        <v>573544</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>503769</v>
+        <v>503097</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>412408</v>
+        <v>410052</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>542602</v>
+        <v>543481</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>503166</v>
+        <v>502188</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>489529</v>
+        <v>491348</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>411098</v>
+        <v>411588</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1187943</v>
+        <v>1187570</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1064501</v>
+        <v>1063492</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>988423</v>
+        <v>986423</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>812881</v>
+        <v>810267</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>503796</v>
+        <v>505975</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>509730</v>
+        <v>512341</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>514513</v>
+        <v>515155</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>464130</v>
+        <v>464662</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>551964</v>
+        <v>551599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>524996</v>
+        <v>524079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>499474</v>
+        <v>501091</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>441882</v>
+        <v>438881</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1068929</v>
+        <v>1069358</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1047007</v>
+        <v>1046082</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1028810</v>
+        <v>1027698</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>914988</v>
+        <v>916534</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>540529</v>
+        <v>542363</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>554363</v>
+        <v>555607</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>557432</v>
+        <v>556318</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>506859</v>
+        <v>506311</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>590236</v>
+        <v>590586</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>572305</v>
+        <v>568386</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>542219</v>
+        <v>542672</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>475794</v>
+        <v>475033</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1124897</v>
+        <v>1122087</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1110307</v>
+        <v>1108168</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1087191</v>
+        <v>1086628</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>969267</v>
+        <v>970375</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>403577</v>
+        <v>405559</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>424972</v>
+        <v>427146</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>488177</v>
+        <v>487834</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>468048</v>
+        <v>469994</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>385295</v>
+        <v>383689</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>385208</v>
+        <v>386938</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>446332</v>
+        <v>443175</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>494882</v>
+        <v>496488</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>802165</v>
+        <v>801741</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>823578</v>
+        <v>828220</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>944928</v>
+        <v>944703</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>981031</v>
+        <v>982800</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>441147</v>
+        <v>440616</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>471946</v>
+        <v>474648</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>533256</v>
+        <v>529186</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>518163</v>
+        <v>519682</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>422360</v>
+        <v>421668</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>435262</v>
+        <v>436567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>494089</v>
+        <v>490223</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>534419</v>
+        <v>535461</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>852572</v>
+        <v>853210</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>894168</v>
+        <v>895890</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1009931</v>
+        <v>1011930</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1043344</v>
+        <v>1039766</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>282370</v>
+        <v>283073</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>294688</v>
+        <v>293783</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>337483</v>
+        <v>338442</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>400083</v>
+        <v>400967</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>274702</v>
+        <v>276504</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>242877</v>
+        <v>242207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>301782</v>
+        <v>301066</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>342063</v>
+        <v>342449</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>571827</v>
+        <v>569492</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>551017</v>
+        <v>545636</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>652097</v>
+        <v>648961</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>750105</v>
+        <v>756807</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>315507</v>
+        <v>314938</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>332028</v>
+        <v>334126</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>378015</v>
+        <v>379796</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>444247</v>
+        <v>443962</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>309504</v>
+        <v>313419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>285711</v>
+        <v>284467</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>345331</v>
+        <v>345938</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>379581</v>
+        <v>378551</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>616258</v>
+        <v>616597</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>609603</v>
+        <v>605939</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>712766</v>
+        <v>711042</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>808216</v>
+        <v>809651</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>171537</v>
+        <v>169186</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>149321</v>
+        <v>149911</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>193610</v>
+        <v>193725</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>243608</v>
+        <v>244078</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>174464</v>
+        <v>174506</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>170403</v>
+        <v>172194</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>178804</v>
+        <v>179435</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>241617</v>
+        <v>243052</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>353942</v>
+        <v>355607</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>329602</v>
+        <v>328963</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>381649</v>
+        <v>385220</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>495618</v>
+        <v>493905</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>204286</v>
+        <v>200821</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>186297</v>
+        <v>186780</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>229808</v>
+        <v>229582</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>275474</v>
+        <v>276361</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>208195</v>
+        <v>208938</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>207485</v>
+        <v>207289</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>218986</v>
+        <v>218552</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>271223</v>
+        <v>270840</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>402307</v>
+        <v>402923</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>381758</v>
+        <v>381427</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>438303</v>
+        <v>437957</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>538097</v>
+        <v>536877</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>105748</v>
+        <v>104846</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>112652</v>
+        <v>112762</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>131115</v>
+        <v>132291</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>168180</v>
+        <v>167110</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>135803</v>
+        <v>134567</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>148219</v>
+        <v>149590</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>189902</v>
+        <v>189663</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>213485</v>
+        <v>213903</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>250605</v>
+        <v>248718</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>272222</v>
+        <v>271248</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>334288</v>
+        <v>332500</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>391162</v>
+        <v>390816</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>133636</v>
+        <v>132404</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>146981</v>
+        <v>146378</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>160567</v>
+        <v>160995</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>196450</v>
+        <v>194475</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>174699</v>
+        <v>174617</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>190993</v>
+        <v>188792</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>235181</v>
+        <v>235958</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>244757</v>
+        <v>244558</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>298915</v>
+        <v>297676</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>323334</v>
+        <v>326272</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>385820</v>
+        <v>384809</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>433287</v>
+        <v>433249</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2475877</v>
+        <v>2474207</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2548476</v>
+        <v>2547476</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2536293</v>
+        <v>2531189</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2333279</v>
+        <v>2337380</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2470403</v>
+        <v>2466433</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2457275</v>
+        <v>2466692</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4845680</v>
+        <v>4839955</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5053588</v>
+        <v>5048930</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>5030881</v>
+        <v>5029597</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2578242</v>
+        <v>2577738</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2647087</v>
+        <v>2651654</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2643302</v>
+        <v>2637658</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2447361</v>
+        <v>2450113</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2578865</v>
+        <v>2578048</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2557523</v>
+        <v>2562088</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>5004106</v>
+        <v>4997089</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>5198463</v>
+        <v>5197164</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>5174358</v>
+        <v>5171530</v>
       </c>
     </row>
     <row r="36">
